--- a/natmiOut/OldD7/LR-pairs_lrc2p/Pros1-Axl.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Pros1-Axl.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.2752826623491</v>
+        <v>28.48226033333333</v>
       </c>
       <c r="H2">
-        <v>27.2752826623491</v>
+        <v>85.44678099999999</v>
       </c>
       <c r="I2">
-        <v>0.2070446906413405</v>
+        <v>0.2101651977164657</v>
       </c>
       <c r="J2">
-        <v>0.2070446906413405</v>
+        <v>0.2101651977164658</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.89351831394003</v>
+        <v>6.360972666666666</v>
       </c>
       <c r="N2">
-        <v>3.89351831394003</v>
+        <v>19.082918</v>
       </c>
       <c r="O2">
-        <v>0.0201159479973118</v>
+        <v>0.03115862208643261</v>
       </c>
       <c r="P2">
-        <v>0.0201159479973118</v>
+        <v>0.03115862208643262</v>
       </c>
       <c r="Q2">
-        <v>106.1968125637472</v>
+        <v>181.1748794652175</v>
       </c>
       <c r="R2">
-        <v>106.1968125637472</v>
+        <v>1630.573915186958</v>
       </c>
       <c r="S2">
-        <v>0.004164900230060714</v>
+        <v>0.006548457971367747</v>
       </c>
       <c r="T2">
-        <v>0.004164900230060714</v>
+        <v>0.006548457971367749</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.2752826623491</v>
+        <v>28.48226033333333</v>
       </c>
       <c r="H3">
-        <v>27.2752826623491</v>
+        <v>85.44678099999999</v>
       </c>
       <c r="I3">
-        <v>0.2070446906413405</v>
+        <v>0.2101651977164657</v>
       </c>
       <c r="J3">
-        <v>0.2070446906413405</v>
+        <v>0.2101651977164658</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>106.284850486675</v>
+        <v>107.3681206666667</v>
       </c>
       <c r="N3">
-        <v>106.284850486675</v>
+        <v>322.104362</v>
       </c>
       <c r="O3">
-        <v>0.5491230175127785</v>
+        <v>0.5259325690101214</v>
       </c>
       <c r="P3">
-        <v>0.5491230175127785</v>
+        <v>0.5259325690101214</v>
       </c>
       <c r="Q3">
-        <v>2898.949339749573</v>
+        <v>3058.086764328747</v>
       </c>
       <c r="R3">
-        <v>2898.949339749573</v>
+        <v>27522.78087895872</v>
       </c>
       <c r="S3">
-        <v>0.1136930052849726</v>
+        <v>0.1105327223515409</v>
       </c>
       <c r="T3">
-        <v>0.1136930052849726</v>
+        <v>0.1105327223515409</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.2752826623491</v>
+        <v>28.48226033333333</v>
       </c>
       <c r="H4">
-        <v>27.2752826623491</v>
+        <v>85.44678099999999</v>
       </c>
       <c r="I4">
-        <v>0.2070446906413405</v>
+        <v>0.2101651977164657</v>
       </c>
       <c r="J4">
-        <v>0.2070446906413405</v>
+        <v>0.2101651977164658</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>55.027696971928</v>
+        <v>59.10257333333334</v>
       </c>
       <c r="N4">
-        <v>55.027696971928</v>
+        <v>177.30772</v>
       </c>
       <c r="O4">
-        <v>0.2843018066040579</v>
+        <v>0.2895083571855736</v>
       </c>
       <c r="P4">
-        <v>0.2843018066040579</v>
+        <v>0.2895083571855736</v>
       </c>
       <c r="Q4">
-        <v>1500.895989167428</v>
+        <v>1683.374880049924</v>
       </c>
       <c r="R4">
-        <v>1500.895989167428</v>
+        <v>15150.37392044932</v>
       </c>
       <c r="S4">
-        <v>0.05886317959711137</v>
+        <v>0.06084458112847525</v>
       </c>
       <c r="T4">
-        <v>0.05886317959711137</v>
+        <v>0.06084458112847526</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.2752826623491</v>
+        <v>28.48226033333333</v>
       </c>
       <c r="H5">
-        <v>27.2752826623491</v>
+        <v>85.44678099999999</v>
       </c>
       <c r="I5">
-        <v>0.2070446906413405</v>
+        <v>0.2101651977164657</v>
       </c>
       <c r="J5">
-        <v>0.2070446906413405</v>
+        <v>0.2101651977164658</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.3477411104505</v>
+        <v>31.31640666666667</v>
       </c>
       <c r="N5">
-        <v>28.3477411104505</v>
+        <v>93.94922000000001</v>
       </c>
       <c r="O5">
-        <v>0.1464592278858518</v>
+        <v>0.1534004517178723</v>
       </c>
       <c r="P5">
-        <v>0.1464592278858518</v>
+        <v>0.1534004517178724</v>
       </c>
       <c r="Q5">
-        <v>773.1926516266313</v>
+        <v>891.9620473845355</v>
       </c>
       <c r="R5">
-        <v>773.1926516266313</v>
+        <v>8027.65842646082</v>
       </c>
       <c r="S5">
-        <v>0.03032360552919576</v>
+        <v>0.0322394362650818</v>
       </c>
       <c r="T5">
-        <v>0.03032360552919576</v>
+        <v>0.03223943626508181</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>83.44596233258029</v>
+        <v>83.45109033333334</v>
       </c>
       <c r="H6">
-        <v>83.44596233258029</v>
+        <v>250.353271</v>
       </c>
       <c r="I6">
-        <v>0.6334322423087967</v>
+        <v>0.6157697701763504</v>
       </c>
       <c r="J6">
-        <v>0.6334322423087967</v>
+        <v>0.6157697701763504</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.89351831394003</v>
+        <v>6.360972666666666</v>
       </c>
       <c r="N6">
-        <v>3.89351831394003</v>
+        <v>19.082918</v>
       </c>
       <c r="O6">
-        <v>0.0201159479973118</v>
+        <v>0.03115862208643261</v>
       </c>
       <c r="P6">
-        <v>0.0201159479973118</v>
+        <v>0.03115862208643262</v>
       </c>
       <c r="Q6">
-        <v>324.8983825662513</v>
+        <v>530.8301046138643</v>
       </c>
       <c r="R6">
-        <v>324.8983825662513</v>
+        <v>4777.470941524778</v>
       </c>
       <c r="S6">
-        <v>0.01274209004610436</v>
+        <v>0.01918653756117437</v>
       </c>
       <c r="T6">
-        <v>0.01274209004610436</v>
+        <v>0.01918653756117437</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>83.44596233258029</v>
+        <v>83.45109033333334</v>
       </c>
       <c r="H7">
-        <v>83.44596233258029</v>
+        <v>250.353271</v>
       </c>
       <c r="I7">
-        <v>0.6334322423087967</v>
+        <v>0.6157697701763504</v>
       </c>
       <c r="J7">
-        <v>0.6334322423087967</v>
+        <v>0.6157697701763504</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>106.284850486675</v>
+        <v>107.3681206666667</v>
       </c>
       <c r="N7">
-        <v>106.284850486675</v>
+        <v>322.104362</v>
       </c>
       <c r="O7">
-        <v>0.5491230175127785</v>
+        <v>0.5259325690101214</v>
       </c>
       <c r="P7">
-        <v>0.5491230175127785</v>
+        <v>0.5259325690101214</v>
       </c>
       <c r="Q7">
-        <v>8869.04163023501</v>
+        <v>8959.986736674236</v>
       </c>
       <c r="R7">
-        <v>8869.04163023501</v>
+        <v>80639.88063006812</v>
       </c>
       <c r="S7">
-        <v>0.3478322242864919</v>
+        <v>0.32385337714762</v>
       </c>
       <c r="T7">
-        <v>0.3478322242864919</v>
+        <v>0.32385337714762</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>83.44596233258029</v>
+        <v>83.45109033333334</v>
       </c>
       <c r="H8">
-        <v>83.44596233258029</v>
+        <v>250.353271</v>
       </c>
       <c r="I8">
-        <v>0.6334322423087967</v>
+        <v>0.6157697701763504</v>
       </c>
       <c r="J8">
-        <v>0.6334322423087967</v>
+        <v>0.6157697701763504</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>55.027696971928</v>
+        <v>59.10257333333334</v>
       </c>
       <c r="N8">
-        <v>55.027696971928</v>
+        <v>177.30772</v>
       </c>
       <c r="O8">
-        <v>0.2843018066040579</v>
+        <v>0.2895083571855736</v>
       </c>
       <c r="P8">
-        <v>0.2843018066040579</v>
+        <v>0.2895083571855736</v>
       </c>
       <c r="Q8">
-        <v>4591.839128768147</v>
+        <v>4932.174186172459</v>
       </c>
       <c r="R8">
-        <v>4591.839128768147</v>
+        <v>44389.56767555213</v>
       </c>
       <c r="S8">
-        <v>0.1800859308496503</v>
+        <v>0.1782704945682934</v>
       </c>
       <c r="T8">
-        <v>0.1800859308496503</v>
+        <v>0.1782704945682934</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>83.44596233258029</v>
+        <v>83.45109033333334</v>
       </c>
       <c r="H9">
-        <v>83.44596233258029</v>
+        <v>250.353271</v>
       </c>
       <c r="I9">
-        <v>0.6334322423087967</v>
+        <v>0.6157697701763504</v>
       </c>
       <c r="J9">
-        <v>0.6334322423087967</v>
+        <v>0.6157697701763504</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>28.3477411104505</v>
+        <v>31.31640666666667</v>
       </c>
       <c r="N9">
-        <v>28.3477411104505</v>
+        <v>93.94922000000001</v>
       </c>
       <c r="O9">
-        <v>0.1464592278858518</v>
+        <v>0.1534004517178723</v>
       </c>
       <c r="P9">
-        <v>0.1464592278858518</v>
+        <v>0.1534004517178724</v>
       </c>
       <c r="Q9">
-        <v>2365.50453691639</v>
+        <v>2613.388281655403</v>
       </c>
       <c r="R9">
-        <v>2365.50453691639</v>
+        <v>23520.49453489862</v>
       </c>
       <c r="S9">
-        <v>0.09277199712655014</v>
+        <v>0.09445936089926259</v>
       </c>
       <c r="T9">
-        <v>0.09277199712655014</v>
+        <v>0.0944593608992626</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.0591925931926</v>
+        <v>14.78130366666667</v>
       </c>
       <c r="H10">
-        <v>14.0591925931926</v>
+        <v>44.343911</v>
       </c>
       <c r="I10">
-        <v>0.1067223103481446</v>
+        <v>0.1090684366779874</v>
       </c>
       <c r="J10">
-        <v>0.1067223103481446</v>
+        <v>0.1090684366779875</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.89351831394003</v>
+        <v>6.360972666666666</v>
       </c>
       <c r="N10">
-        <v>3.89351831394003</v>
+        <v>19.082918</v>
       </c>
       <c r="O10">
-        <v>0.0201159479973118</v>
+        <v>0.03115862208643261</v>
       </c>
       <c r="P10">
-        <v>0.0201159479973118</v>
+        <v>0.03115862208643262</v>
       </c>
       <c r="Q10">
-        <v>54.73972384080541</v>
+        <v>94.02346860136643</v>
       </c>
       <c r="R10">
-        <v>54.73972384080541</v>
+        <v>846.211217412298</v>
       </c>
       <c r="S10">
-        <v>0.002146820445116247</v>
+        <v>0.003398422200007417</v>
       </c>
       <c r="T10">
-        <v>0.002146820445116247</v>
+        <v>0.003398422200007418</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>14.0591925931926</v>
+        <v>14.78130366666667</v>
       </c>
       <c r="H11">
-        <v>14.0591925931926</v>
+        <v>44.343911</v>
       </c>
       <c r="I11">
-        <v>0.1067223103481446</v>
+        <v>0.1090684366779874</v>
       </c>
       <c r="J11">
-        <v>0.1067223103481446</v>
+        <v>0.1090684366779875</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>106.284850486675</v>
+        <v>107.3681206666667</v>
       </c>
       <c r="N11">
-        <v>106.284850486675</v>
+        <v>322.104362</v>
       </c>
       <c r="O11">
-        <v>0.5491230175127785</v>
+        <v>0.5259325690101214</v>
       </c>
       <c r="P11">
-        <v>0.5491230175127785</v>
+        <v>0.5259325690101214</v>
       </c>
       <c r="Q11">
-        <v>1494.279182730844</v>
+        <v>1587.040795693309</v>
       </c>
       <c r="R11">
-        <v>1494.279182730844</v>
+        <v>14283.36716123978</v>
       </c>
       <c r="S11">
-        <v>0.05860367709430836</v>
+        <v>0.0573626430999717</v>
       </c>
       <c r="T11">
-        <v>0.05860367709430836</v>
+        <v>0.0573626430999717</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.0591925931926</v>
+        <v>14.78130366666667</v>
       </c>
       <c r="H12">
-        <v>14.0591925931926</v>
+        <v>44.343911</v>
       </c>
       <c r="I12">
-        <v>0.1067223103481446</v>
+        <v>0.1090684366779874</v>
       </c>
       <c r="J12">
-        <v>0.1067223103481446</v>
+        <v>0.1090684366779875</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>55.027696971928</v>
+        <v>59.10257333333334</v>
       </c>
       <c r="N12">
-        <v>55.027696971928</v>
+        <v>177.30772</v>
       </c>
       <c r="O12">
-        <v>0.2843018066040579</v>
+        <v>0.2895083571855736</v>
       </c>
       <c r="P12">
-        <v>0.2843018066040579</v>
+        <v>0.2895083571855736</v>
       </c>
       <c r="Q12">
-        <v>773.644989688177</v>
+        <v>873.6130839214356</v>
       </c>
       <c r="R12">
-        <v>773.644989688177</v>
+        <v>7862.517755292921</v>
       </c>
       <c r="S12">
-        <v>0.03034134563693644</v>
+        <v>0.0315762239234429</v>
       </c>
       <c r="T12">
-        <v>0.03034134563693644</v>
+        <v>0.03157622392344291</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>14.0591925931926</v>
+        <v>14.78130366666667</v>
       </c>
       <c r="H13">
-        <v>14.0591925931926</v>
+        <v>44.343911</v>
       </c>
       <c r="I13">
-        <v>0.1067223103481446</v>
+        <v>0.1090684366779874</v>
       </c>
       <c r="J13">
-        <v>0.1067223103481446</v>
+        <v>0.1090684366779875</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>28.3477411104505</v>
+        <v>31.31640666666667</v>
       </c>
       <c r="N13">
-        <v>28.3477411104505</v>
+        <v>93.94922000000001</v>
       </c>
       <c r="O13">
-        <v>0.1464592278858518</v>
+        <v>0.1534004517178723</v>
       </c>
       <c r="P13">
-        <v>0.1464592278858518</v>
+        <v>0.1534004517178724</v>
       </c>
       <c r="Q13">
-        <v>398.546351853787</v>
+        <v>462.8973166888244</v>
       </c>
       <c r="R13">
-        <v>398.546351853787</v>
+        <v>4166.075850199421</v>
       </c>
       <c r="S13">
-        <v>0.0156304671717835</v>
+        <v>0.01673114745456543</v>
       </c>
       <c r="T13">
-        <v>0.0156304671717835</v>
+        <v>0.01673114745456544</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.9557715262549</v>
+        <v>8.808546666666667</v>
       </c>
       <c r="H14">
-        <v>6.9557715262549</v>
+        <v>26.42564</v>
       </c>
       <c r="I14">
-        <v>0.05280075670171831</v>
+        <v>0.0649965954291964</v>
       </c>
       <c r="J14">
-        <v>0.05280075670171831</v>
+        <v>0.06499659542919642</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.89351831394003</v>
+        <v>6.360972666666666</v>
       </c>
       <c r="N14">
-        <v>3.89351831394003</v>
+        <v>19.082918</v>
       </c>
       <c r="O14">
-        <v>0.0201159479973118</v>
+        <v>0.03115862208643261</v>
       </c>
       <c r="P14">
-        <v>0.0201159479973118</v>
+        <v>0.03115862208643262</v>
       </c>
       <c r="Q14">
-        <v>27.08242382505604</v>
+        <v>56.03092457972444</v>
       </c>
       <c r="R14">
-        <v>27.08242382505604</v>
+        <v>504.27832121752</v>
       </c>
       <c r="S14">
-        <v>0.001062137276030478</v>
+        <v>0.002025204353883084</v>
       </c>
       <c r="T14">
-        <v>0.001062137276030478</v>
+        <v>0.002025204353883085</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.9557715262549</v>
+        <v>8.808546666666667</v>
       </c>
       <c r="H15">
-        <v>6.9557715262549</v>
+        <v>26.42564</v>
       </c>
       <c r="I15">
-        <v>0.05280075670171831</v>
+        <v>0.0649965954291964</v>
       </c>
       <c r="J15">
-        <v>0.05280075670171831</v>
+        <v>0.06499659542919642</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>106.284850486675</v>
+        <v>107.3681206666667</v>
       </c>
       <c r="N15">
-        <v>106.284850486675</v>
+        <v>322.104362</v>
       </c>
       <c r="O15">
-        <v>0.5491230175127785</v>
+        <v>0.5259325690101214</v>
       </c>
       <c r="P15">
-        <v>0.5491230175127785</v>
+        <v>0.5259325690101214</v>
       </c>
       <c r="Q15">
-        <v>739.2931366874732</v>
+        <v>945.7571014046313</v>
       </c>
       <c r="R15">
-        <v>739.2931366874732</v>
+        <v>8511.813912641681</v>
       </c>
       <c r="S15">
-        <v>0.02899411084700562</v>
+        <v>0.03418382641098878</v>
       </c>
       <c r="T15">
-        <v>0.02899411084700562</v>
+        <v>0.03418382641098879</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.9557715262549</v>
+        <v>8.808546666666667</v>
       </c>
       <c r="H16">
-        <v>6.9557715262549</v>
+        <v>26.42564</v>
       </c>
       <c r="I16">
-        <v>0.05280075670171831</v>
+        <v>0.0649965954291964</v>
       </c>
       <c r="J16">
-        <v>0.05280075670171831</v>
+        <v>0.06499659542919642</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>55.027696971928</v>
+        <v>59.10257333333334</v>
       </c>
       <c r="N16">
-        <v>55.027696971928</v>
+        <v>177.30772</v>
       </c>
       <c r="O16">
-        <v>0.2843018066040579</v>
+        <v>0.2895083571855736</v>
       </c>
       <c r="P16">
-        <v>0.2843018066040579</v>
+        <v>0.2895083571855736</v>
       </c>
       <c r="Q16">
-        <v>382.7600877527198</v>
+        <v>520.6077753267556</v>
       </c>
       <c r="R16">
-        <v>382.7600877527198</v>
+        <v>4685.469977940801</v>
       </c>
       <c r="S16">
-        <v>0.01501135052035983</v>
+        <v>0.01881705756536201</v>
       </c>
       <c r="T16">
-        <v>0.01501135052035983</v>
+        <v>0.01881705756536201</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.9557715262549</v>
+        <v>8.808546666666667</v>
       </c>
       <c r="H17">
-        <v>6.9557715262549</v>
+        <v>26.42564</v>
       </c>
       <c r="I17">
-        <v>0.05280075670171831</v>
+        <v>0.0649965954291964</v>
       </c>
       <c r="J17">
-        <v>0.05280075670171831</v>
+        <v>0.06499659542919642</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>28.3477411104505</v>
+        <v>31.31640666666667</v>
       </c>
       <c r="N17">
-        <v>28.3477411104505</v>
+        <v>93.94922000000001</v>
       </c>
       <c r="O17">
-        <v>0.1464592278858518</v>
+        <v>0.1534004517178723</v>
       </c>
       <c r="P17">
-        <v>0.1464592278858518</v>
+        <v>0.1534004517178724</v>
       </c>
       <c r="Q17">
-        <v>197.180410449717</v>
+        <v>275.8520295556444</v>
       </c>
       <c r="R17">
-        <v>197.180410449717</v>
+        <v>2482.6682660008</v>
       </c>
       <c r="S17">
-        <v>0.007733158058322377</v>
+        <v>0.009970507098962526</v>
       </c>
       <c r="T17">
-        <v>0.007733158058322377</v>
+        <v>0.009970507098962529</v>
       </c>
     </row>
   </sheetData>
